--- a/data/income_statement/3digits/total/203_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/203_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>203-Manufacture of paints, varnishes and similar coatings, printing ink and mastics</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>203-Manufacture of paints, varnishes and similar coatings, printing ink and mastics</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,92 +841,107 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>4452603.319979999</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>5708012.14875</v>
+        <v>5708012.148750001</v>
       </c>
       <c r="E5" s="47" t="n">
         <v>7532159.40751</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>7047888.7034</v>
+        <v>7986361.553440001</v>
       </c>
       <c r="G5" s="47" t="n">
         <v>8553772.41106</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>9482069.408670001</v>
+        <v>9536372.011049999</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>10330643.83451</v>
+        <v>10411522.69447</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>11203123.11125</v>
+        <v>11203416.30338</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>13913961.60506</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>17491488.58231</v>
+        <v>17504330.61478</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>19375375.85702</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>19426342.55673</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>25623447.501</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>3928361.477460001</v>
+        <v>3928361.47746</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>5141283.35831</v>
+        <v>5141283.358309999</v>
       </c>
       <c r="E6" s="48" t="n">
         <v>6840549.27567</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>6343350.422530001</v>
+        <v>7200844.073779999</v>
       </c>
       <c r="G6" s="48" t="n">
         <v>7607288.393009999</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>8395939.29152</v>
+        <v>8435582.07597</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>9095872.562029999</v>
+        <v>9152924.50914</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>9763481.996040002</v>
+        <v>9763640.143879998</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>12115649.39189</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>14829016.21364</v>
+        <v>14841857.24884</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>16107486.76654</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>16155631.25404</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>21312935.459</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>480286.15343</v>
@@ -1037,19 +953,19 @@
         <v>648394.9785</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>670382.8242900001</v>
+        <v>737960.8909100001</v>
       </c>
       <c r="G7" s="48" t="n">
         <v>907578.77141</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>1019213.49296</v>
+        <v>1033440.13161</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>1167041.32541</v>
+        <v>1190049.88485</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>1349108.12467</v>
+        <v>1349243.16896</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>1691004.12382</v>
@@ -1058,13 +974,18 @@
         <v>2514222.57006</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>3109361.15475</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>3112054.9883</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>4171000.23</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>43955.68909000001</v>
@@ -1076,16 +997,16 @@
         <v>43215.15334</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>34155.45658</v>
+        <v>47556.58875</v>
       </c>
       <c r="G8" s="48" t="n">
         <v>38905.24664</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>66916.62419</v>
+        <v>67349.80347</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>67729.94707000001</v>
+        <v>68548.30048000001</v>
       </c>
       <c r="J8" s="48" t="n">
         <v>90532.99054</v>
@@ -1094,19 +1015,24 @@
         <v>107308.08935</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>148249.79861</v>
+        <v>148250.79588</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>158527.93573</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>158656.31439</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>139511.812</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>894945.2876500001</v>
+        <v>894945.28765</v>
       </c>
       <c r="D9" s="47" t="n">
         <v>1157066.21186</v>
@@ -1115,34 +1041,39 @@
         <v>1244276.39383</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>1077496.23367</v>
+        <v>1234559.0838</v>
       </c>
       <c r="G9" s="47" t="n">
         <v>1358204.06479</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>1721326.89375</v>
+        <v>1734211.92619</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>1849727.17485</v>
+        <v>1860715.03877</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>1997158.83222</v>
+        <v>1997159.22326</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>2210669.77447</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>2500096.95369</v>
+        <v>2500097.69029</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>2730596.14377</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>2737664.22901</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>3678120.54</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>89875.57424</v>
@@ -1154,34 +1085,39 @@
         <v>93442.75461</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>83679.06148999999</v>
+        <v>117743.27968</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>97882.07931</v>
+        <v>97882.07931000002</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>138708.19257</v>
+        <v>139037.01198</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>122729.1113</v>
+        <v>123458.26417</v>
       </c>
       <c r="J10" s="48" t="n">
         <v>188675.1229</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>155983.9980399999</v>
+        <v>155983.99804</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>284527.36427</v>
+        <v>284528.10087</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>237065.02749</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>237475.79693</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>183933.488</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>798482.1731200001</v>
@@ -1193,19 +1129,19 @@
         <v>1146148.52115</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>987188.24891</v>
+        <v>1110186.88085</v>
       </c>
       <c r="G11" s="48" t="n">
         <v>1254888.59928</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>1572846.00774</v>
+        <v>1585402.22077</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>1713710.21996</v>
+        <v>1723968.93101</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>1790905.70429</v>
+        <v>1790906.09533</v>
       </c>
       <c r="K11" s="48" t="n">
         <v>2034610.79433</v>
@@ -1214,13 +1150,18 @@
         <v>2189688.45365</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>2457154.23604</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>2463791.54888</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>3451796.582</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>6587.54029</v>
@@ -1253,13 +1194,18 @@
         <v>25881.13577</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>36376.88023999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>36396.8832</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>42390.47</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>3557658.03233</v>
@@ -1268,37 +1214,42 @@
         <v>4550945.93689</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>6287883.013679999</v>
+        <v>6287883.01368</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>5970392.469729999</v>
+        <v>6751802.469640001</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>7195568.34627</v>
+        <v>7195568.346270001</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>7760742.51492</v>
+        <v>7802160.084860001</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>8480916.65966</v>
+        <v>8550807.6557</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>9205964.279030001</v>
+        <v>9206257.080120001</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>11703291.83059</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>14991391.62862</v>
+        <v>15004232.92449</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>16644779.71325</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>16688678.32772</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>21945326.961</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>2679946.46889</v>
@@ -1310,34 +1261,39 @@
         <v>5003672.83232</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>4791517.47926</v>
+        <v>5348599.399850001</v>
       </c>
       <c r="G14" s="47" t="n">
         <v>5443673.46007</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>5891071.038170001</v>
+        <v>5922386.522009999</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>6295760.352360001</v>
+        <v>6341509.497459999</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>6629465.30013</v>
+        <v>6629633.254149999</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>8735241.052229999</v>
+        <v>8735241.052230002</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>11120284.08597</v>
+        <v>11132510.03254</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>12206763.3757</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>12245096.32823</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>15594498.831</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>2225468.0181</v>
@@ -1349,34 +1305,39 @@
         <v>4167509.97452</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>3864374.267349999</v>
+        <v>4352961.90549</v>
       </c>
       <c r="G15" s="48" t="n">
         <v>4270545.337950001</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>4929175.36138</v>
+        <v>4960074.72092</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>5200639.34574</v>
+        <v>5240831.64551</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>5531021.016890001</v>
+        <v>5531157.69912</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>7323616.52647</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>9355508.675520001</v>
+        <v>9361724.03733</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>10435916.0963</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>10461555.38342</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>13249731.698</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>419420.42641</v>
@@ -1388,34 +1349,39 @@
         <v>798442.9729500001</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>888675.7476900001</v>
+        <v>957170.0301400002</v>
       </c>
       <c r="G16" s="48" t="n">
         <v>1133331.51012</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>904017.7000399999</v>
+        <v>904430.3374200001</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>1041064.14443</v>
+        <v>1046607.63581</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>1041051.71507</v>
+        <v>1041082.98686</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>1342295.8644</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>1644886.21735</v>
+        <v>1650872.9894</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>1643060.5506</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1654750.99561</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>2148589.029</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>26651.2459</v>
@@ -1433,28 +1399,33 @@
         <v>22215.28016</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>21686.53612</v>
+        <v>21690.02304</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>30861.23994</v>
+        <v>30874.59389</v>
       </c>
       <c r="J17" s="48" t="n">
         <v>30721.63654</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>37603.94163</v>
+        <v>37603.94162999999</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>81193.86368000001</v>
+        <v>81213.15139</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>84771.68723</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>85533.67015999999</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>149511.672</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>8406.778480000001</v>
@@ -1484,19 +1455,24 @@
         <v>31724.71973</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>38695.32941999999</v>
+        <v>38699.85442</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>43015.04157</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>43256.27904</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>46666.432</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>877711.5634399998</v>
+        <v>877711.5634399999</v>
       </c>
       <c r="D19" s="47" t="n">
         <v>1044073.24881</v>
@@ -1505,34 +1481,39 @@
         <v>1284210.18136</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>1178874.99047</v>
+        <v>1403203.06979</v>
       </c>
       <c r="G19" s="47" t="n">
         <v>1751894.8862</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>1869671.47675</v>
+        <v>1879773.56285</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>2185156.3073</v>
+        <v>2209298.15824</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>2576498.9789</v>
+        <v>2576623.82597</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>2968050.77836</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>3871107.54265</v>
+        <v>3871722.89195</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>4438016.337549999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>4443581.999489999</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>6350828.13</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>580572.10503</v>
@@ -1544,34 +1525,39 @@
         <v>874011.81674</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>788140.2300699999</v>
+        <v>974727.0253700002</v>
       </c>
       <c r="G20" s="47" t="n">
         <v>1100730.49463</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>1209414.95284</v>
+        <v>1214837.17674</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>1383248.3582</v>
+        <v>1393455.81377</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>1558099.12993</v>
+        <v>1558141.88547</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>1770633.4018</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>2080874.3075</v>
+        <v>2083325.98529</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>2406118.24191</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>2412882.24971</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>2993197.996</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>25841.92927</v>
@@ -1583,22 +1569,22 @@
         <v>38016.51645</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>35396.305</v>
+        <v>44469.24260000001</v>
       </c>
       <c r="G21" s="48" t="n">
         <v>43456.73243</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>46742.2827</v>
+        <v>46747.89023</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>57179.22736</v>
+        <v>57362.55387999999</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>75502.32522999999</v>
+        <v>75502.32523</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>88403.88049000001</v>
+        <v>88403.88049</v>
       </c>
       <c r="L21" s="48" t="n">
         <v>106759.90313</v>
@@ -1606,50 +1592,60 @@
       <c r="M21" s="48" t="n">
         <v>124142.66002</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>159399.33</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>340183.77978</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>446420.9509699999</v>
+        <v>446420.95097</v>
       </c>
       <c r="E22" s="48" t="n">
         <v>544386.39387</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>467809.41075</v>
+        <v>612583.08114</v>
       </c>
       <c r="G22" s="48" t="n">
         <v>717816.4975300001</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>764499.08876</v>
+        <v>768533.36555</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>860789.64266</v>
+        <v>866778.53134</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>939458.5883600001</v>
+        <v>939478.4303499999</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>1101937.66857</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>1258337.40054</v>
+        <v>1258450.65019</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>1425766.21835</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1428426.11687</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>1796827.853</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>214546.39598</v>
@@ -1661,73 +1657,83 @@
         <v>291608.90642</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>284934.51432</v>
+        <v>317674.70163</v>
       </c>
       <c r="G23" s="48" t="n">
         <v>339457.26467</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>398173.5813799999</v>
+        <v>399555.92096</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>465279.48818</v>
+        <v>469314.72855</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>543138.21634</v>
+        <v>543161.1298900001</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>580291.85274</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>715777.0038299999</v>
+        <v>718115.43197</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>856209.3635399999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>860313.4728200001</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>1036970.813</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>297139.45841</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>318744.8252499999</v>
+        <v>318744.82525</v>
       </c>
       <c r="E24" s="47" t="n">
         <v>410198.36462</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>390734.7604</v>
+        <v>428476.04442</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>651164.3915700001</v>
+        <v>651164.39157</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>660256.52391</v>
+        <v>664936.38611</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>801907.9491</v>
+        <v>815842.34447</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>1018399.84897</v>
+        <v>1018481.9405</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>1197417.37656</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>1790233.23515</v>
+        <v>1788396.90666</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>2031898.09564</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>2030699.74978</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>3357630.134</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>142013.13167</v>
@@ -1739,34 +1745,39 @@
         <v>167507.15188</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>185677.82646</v>
+        <v>224673.5499</v>
       </c>
       <c r="G25" s="47" t="n">
         <v>216010.34535</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>313239.78876</v>
+        <v>314600.86391</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>460850.8419599999</v>
+        <v>465409.78264</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>492684.30138</v>
+        <v>492862.90947</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>713514.82018</v>
+        <v>713514.8201799999</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>2049186.77832</v>
+        <v>2049245.21958</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>1375618.41033</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>1376021.72788</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>1916823.026</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>19782.21875</v>
@@ -1778,7 +1789,7 @@
         <v>14576.27641</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>16441.26531</v>
+        <v>16741.26331</v>
       </c>
       <c r="G26" s="48" t="n">
         <v>14897.40293</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>8412.966400000001</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>7041.765</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>14775.88389</v>
@@ -1856,19 +1877,19 @@
         <v>18106.47894</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>17333.09872</v>
+        <v>27221.03873</v>
       </c>
       <c r="G28" s="48" t="n">
         <v>26465.08703</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>33436.5154</v>
+        <v>33436.62024</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>32212.47318</v>
+        <v>32224.09046</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>20245.98821</v>
+        <v>20257.02916</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>26063.29007</v>
@@ -1877,13 +1898,18 @@
         <v>45111.31461</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>107869.64357</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>107410.93112</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>88924.067</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>160.76299</v>
@@ -1916,13 +1942,18 @@
         <v>456.2950700000001</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>1149.00099</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>1266.97569</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>1481.996</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>10471.30684</v>
@@ -1943,7 +1974,7 @@
         <v>9462.493570000001</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>6062.58768</v>
+        <v>6062.587680000001</v>
       </c>
       <c r="J30" s="48" t="n">
         <v>9693.54477</v>
@@ -1957,11 +1988,16 @@
       <c r="M30" s="48" t="n">
         <v>20328.24539</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>26400.562</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>356.66209</v>
@@ -1970,7 +2006,7 @@
         <v>102.67277</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>411.04395</v>
+        <v>411.0439499999999</v>
       </c>
       <c r="F31" s="48" t="n">
         <v>378.82821</v>
@@ -1994,37 +2030,42 @@
         <v>61304.36021</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>46089.71482</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>46089.85019999999</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>182416.702</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>69484.16874000001</v>
+        <v>69484.16873999999</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>66519.61070999999</v>
+        <v>66519.61071000001</v>
       </c>
       <c r="E32" s="48" t="n">
         <v>110681.06528</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>125783.89216</v>
+        <v>154591.67759</v>
       </c>
       <c r="G32" s="48" t="n">
         <v>144323.07227</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>199730.37046</v>
+        <v>201032.22988</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>322365.08499</v>
+        <v>326912.40839</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>337846.00378</v>
+        <v>338013.57093</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>560100.76647</v>
@@ -2033,13 +2074,18 @@
         <v>1755161.245</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>1058251.5249</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>1058856.20656</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>1529831.415</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>3173.06631</v>
@@ -2060,7 +2106,7 @@
         <v>21145.04909</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>29856.20065999999</v>
+        <v>29856.20066</v>
       </c>
       <c r="J33" s="48" t="n">
         <v>70872.43029</v>
@@ -2072,13 +2118,18 @@
         <v>112598.11694</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>73259.05479000001</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>73259.05478999999</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>27433.246</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>216.34912</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>117.53</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>23592.71294</v>
@@ -2135,28 +2191,33 @@
         <v>15254.19491</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>31897.35982</v>
+        <v>31956.47071</v>
       </c>
       <c r="I35" s="48" t="n">
         <v>36935.61167</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>35868.59253</v>
+        <v>35868.59252</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>43230.95019</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>53483.14887</v>
+        <v>53541.59013</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>60258.25947</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>60397.49773</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>53175.743</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>108602.73082</v>
@@ -2168,34 +2229,39 @@
         <v>151506.09573</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>118264.46273</v>
+        <v>124233.67363</v>
       </c>
       <c r="G36" s="47" t="n">
         <v>265003.53104</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>269663.80346</v>
+        <v>270456.90276</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>425373.19517</v>
+        <v>428793.2145099999</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>511009.25277</v>
+        <v>511562.3549100001</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>682891.4153499999</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>2195638.45363</v>
+        <v>2195801.36917</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>1313972.92491</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>1314072.13283</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>1744757.268</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>2176.34136</v>
@@ -2207,7 +2273,7 @@
         <v>2640.7835</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>2868.907310000001</v>
+        <v>2868.90731</v>
       </c>
       <c r="G37" s="48" t="n">
         <v>4768.64282</v>
@@ -2222,22 +2288,27 @@
         <v>5745.32825</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>4785.128039999999</v>
+        <v>4785.12804</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>6515.69512</v>
+        <v>6515.695119999999</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>9277.072860000002</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>9277.08806</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>8736.768</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>41163.00325</v>
+        <v>41163.00325000001</v>
       </c>
       <c r="D38" s="48" t="n">
         <v>17661.57376</v>
@@ -2246,13 +2317,13 @@
         <v>18891.09948</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>23651.46019</v>
+        <v>25674.11788</v>
       </c>
       <c r="G38" s="48" t="n">
         <v>35449.96878</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>25047.82676</v>
+        <v>25262.51228</v>
       </c>
       <c r="I38" s="48" t="n">
         <v>27183.70826</v>
@@ -2267,13 +2338,18 @@
         <v>82815.17047</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>87439.50826999999</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>87468.88606</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>55205.096</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>141.26171</v>
@@ -2291,7 +2367,7 @@
         <v>263.74441</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>966.43694</v>
+        <v>966.4369399999999</v>
       </c>
       <c r="I39" s="48" t="n">
         <v>2157.62026</v>
@@ -2308,11 +2384,16 @@
       <c r="M39" s="48" t="n">
         <v>27020.71733</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>124219.96</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>52880.5016</v>
@@ -2324,19 +2405,19 @@
         <v>118875.45428</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>76402.68006</v>
+        <v>78099.14551999999</v>
       </c>
       <c r="G40" s="48" t="n">
         <v>193577.68505</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>187178.14718</v>
+        <v>187750.10468</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>341153.79844</v>
+        <v>344573.81778</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>324243.64068</v>
+        <v>324796.74282</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>494398.57934</v>
@@ -2345,13 +2426,18 @@
         <v>1847972.50941</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>1067733.99391</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>1067803.80884</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>1423976.956</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>2869.85704</v>
@@ -2363,7 +2449,7 @@
         <v>427.7006</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>379.88022</v>
+        <v>2629.81878</v>
       </c>
       <c r="G41" s="48" t="n">
         <v>13027.50169</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>68348.16176999999</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>80625.974</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>9371.76586</v>
@@ -2441,13 +2537,13 @@
         <v>10492.24236</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>14361.69387</v>
+        <v>14361.84306</v>
       </c>
       <c r="G43" s="48" t="n">
         <v>17915.98829</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>23429.4168</v>
+        <v>23435.87308</v>
       </c>
       <c r="I43" s="48" t="n">
         <v>21605.58519</v>
@@ -2456,19 +2552,24 @@
         <v>27569.05452</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>35554.42120000001</v>
+        <v>35554.4212</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>57520.17791</v>
+        <v>57683.09345</v>
       </c>
       <c r="M43" s="48" t="n">
         <v>54153.47076999999</v>
       </c>
-    </row>
-    <row r="44" spans="1:13">
+      <c r="N43" s="48" t="n">
+        <v>51992.514</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>155471.44993</v>
@@ -2480,34 +2581,39 @@
         <v>302380.55929</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>177624.83335</v>
+        <v>200340.14482</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>339481.22664</v>
+        <v>339481.2266400001</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>234242.76234</v>
+        <v>235801.99599</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>409814.7534700001</v>
+        <v>412206.99034</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>486292.97884</v>
+        <v>486311.2569099999</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>617566.3671799999</v>
+        <v>617566.3671800001</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>1192550.62544</v>
+        <v>1192642.76232</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>962474.22211</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>962949.2800000001</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>865782.932</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>113406.43619</v>
@@ -2519,34 +2625,39 @@
         <v>224953.74106</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>143073.71625</v>
+        <v>165789.02772</v>
       </c>
       <c r="G45" s="48" t="n">
         <v>298785.9013</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>192177.71019</v>
+        <v>193736.94384</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>352180.88685</v>
+        <v>354573.12372</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>429666.4823799999</v>
+        <v>429684.76045</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>556028.09893</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>1088474.87589</v>
+        <v>1088567.01277</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>782776.3133900001</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>783251.37128</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>654869.791</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>42065.01374</v>
@@ -2581,11 +2692,16 @@
       <c r="M46" s="48" t="n">
         <v>179697.90872</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>210913.141</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>175078.40933</v>
@@ -2597,34 +2713,39 @@
         <v>123818.86148</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>280523.29078</v>
+        <v>328575.77587</v>
       </c>
       <c r="G47" s="47" t="n">
         <v>262689.97924</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>469589.74687</v>
+        <v>473278.35127</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>427570.84242</v>
+        <v>440251.92226</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>513781.91874</v>
+        <v>513471.23815</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>610474.4142100001</v>
+        <v>610474.41421</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>451230.9344</v>
+        <v>449197.9947500001</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>1131069.35895</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>1129700.06483</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>2663912.96</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>28335.96088</v>
@@ -2636,34 +2757,39 @@
         <v>35483.31464</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>95425.41388000001</v>
+        <v>99375.29295</v>
       </c>
       <c r="G48" s="47" t="n">
         <v>64490.95736</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>72691.89145000001</v>
+        <v>73076.69313</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>44385.4224</v>
+        <v>44693.52352999999</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>97576.67066</v>
+        <v>97580.59086</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>142155.86472</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>82818.97222</v>
+        <v>82854.18138999998</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>127927.83016</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>128400.93431</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>155272.793</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>5263.964910000001</v>
@@ -2684,13 +2810,13 @@
         <v>3735.1835</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>404.4062499999999</v>
+        <v>404.40625</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>11528.65352</v>
+        <v>11531.13754</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>490.5435199999999</v>
+        <v>490.54352</v>
       </c>
       <c r="L49" s="48" t="n">
         <v>2287.38971</v>
@@ -2698,11 +2824,16 @@
       <c r="M49" s="48" t="n">
         <v>856.0809199999999</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>2477.994</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>23071.99597</v>
@@ -2714,34 +2845,39 @@
         <v>34488.52922</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>94378.06662</v>
+        <v>98327.94568999999</v>
       </c>
       <c r="G50" s="48" t="n">
         <v>62277.831</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>68956.70795</v>
+        <v>69341.50963</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>43981.01615</v>
+        <v>44289.11728</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>86048.01714</v>
+        <v>86049.45331999999</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>141665.3212</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>80531.58251000001</v>
+        <v>80566.79168000001</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>127071.74924</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>127544.85339</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>152794.799</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>30430.04752</v>
@@ -2753,34 +2889,39 @@
         <v>83725.03564</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>94589.98409999999</v>
+        <v>99304.60932999999</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>41198.78638999999</v>
+        <v>41198.78639</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>67352.74655</v>
+        <v>67500.62751999999</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>51375.1917</v>
+        <v>51679.35498</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>79497.88441</v>
+        <v>79501.61072</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>76082.92736999999</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>169396.41875</v>
+        <v>169648.34</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>102330.542</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>103279.68781</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>176222.679</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>2406.21358</v>
@@ -2813,13 +2954,18 @@
         <v>60231.8143</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>572.91929</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>597.0110999999999</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>1967.407</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>1586.8499</v>
@@ -2831,7 +2977,7 @@
         <v>2202.61941</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>2295.0193</v>
+        <v>2484.20618</v>
       </c>
       <c r="G53" s="48" t="n">
         <v>1060.85331</v>
@@ -2849,16 +2995,21 @@
         <v>1688.63875</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>2174.322630000001</v>
+        <v>2174.39024</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>2905.024689999999</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>2947.7571</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>3207.719</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>26436.98404</v>
@@ -2870,34 +3021,39 @@
         <v>80032.65815999999</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>91720.96187999999</v>
+        <v>96246.40023</v>
       </c>
       <c r="G54" s="48" t="n">
         <v>39505.56092</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>65767.04313999999</v>
+        <v>65914.92410999999</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>47369.26816</v>
+        <v>47673.43144</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>74801.74504000001</v>
+        <v>74805.47134999999</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>73801.65012000001</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>106990.28182</v>
+        <v>107242.13546</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>98852.59801999999</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>99734.91961000001</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>171047.553</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>172984.32269</v>
@@ -2906,37 +3062,42 @@
         <v>243006.16486</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>75577.14047999999</v>
+        <v>75577.14048</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>281358.72056</v>
+        <v>328646.45949</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>285982.1502100001</v>
+        <v>285982.15021</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>474928.89177</v>
+        <v>478854.41688</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>420581.07312</v>
+        <v>433266.09081</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>531860.70499</v>
+        <v>531550.21829</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>676547.35156</v>
+        <v>676547.3515599999</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>364653.48787</v>
+        <v>362403.83614</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>1156666.64711</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>1154821.31133</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>2642963.074</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>37321.43985</v>
@@ -2945,37 +3106,42 @@
         <v>33658.56467</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>36966.20777</v>
+        <v>36966.20776999999</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>39181.24244</v>
+        <v>48782.10115000001</v>
       </c>
       <c r="G56" s="47" t="n">
         <v>54957.19661</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>68625.89095</v>
+        <v>69441.82029999999</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>75037.66314</v>
+        <v>77632.09037000001</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>97562.69184999999</v>
+        <v>97562.77536</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>86407.77936</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>106823.21901</v>
+        <v>106837.26504</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>164838.24319</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>164969.59682</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>274319.878</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>135662.88284</v>
@@ -2984,34 +3150,37 @@
         <v>209347.60019</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>38610.93271</v>
+        <v>38610.93271000001</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>242177.47812</v>
+        <v>279864.35834</v>
       </c>
       <c r="G57" s="47" t="n">
         <v>231024.9536</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>406303.00082</v>
+        <v>409412.59658</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>345543.40998</v>
+        <v>355634.00044</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>434298.01314</v>
+        <v>433987.44293</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>590139.5722000001</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>257830.26886</v>
+        <v>255566.5711</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>991828.4039200001</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>989851.71451</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>2368643.196</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>714</v>
@@ -3041,31 +3213,34 @@
         <v>774</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="G59" s="35" t="n">
         <v>669</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>647</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>594</v>
+        <v>652</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>665</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>